--- a/filterstock.xlsx
+++ b/filterstock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG153"/>
+  <dimension ref="A1:AG154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,32 +618,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>49.900</t>
+          <t>50.000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>+0.350</t>
+          <t>+0.150</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>+0.706%</t>
+          <t>+0.301%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.05百萬</t>
+          <t>1.43百萬</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.24千萬</t>
+          <t>7.16千萬</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>17.33</t>
+          <t>17.36</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -653,12 +653,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>5.65%</t>
+          <t>5.64%</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1,065.00億</t>
+          <t>1,067.13億</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="AG2" t="n">
-        <v>106500000000</v>
+        <v>106713000000</v>
       </c>
     </row>
     <row r="3">
@@ -771,32 +771,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.050</t>
+          <t>24.150</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>+0.050</t>
+          <t>+0.200</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>+0.208%</t>
+          <t>+0.835%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>38.01萬</t>
+          <t>38.00萬</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9.12百萬</t>
+          <t>9.14百萬</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>18.08</t>
+          <t>18.16</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5.99%</t>
+          <t>5.96%</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>247.36億</t>
+          <t>248.38億</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="AG3" t="n">
-        <v>24736000000</v>
+        <v>24838000000</v>
       </c>
     </row>
     <row r="4">
@@ -920,47 +920,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>47.150</t>
+          <t>47.650</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>+0.700</t>
+          <t>+0.450</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>+1.507%</t>
+          <t>+0.953%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.01百萬</t>
+          <t>6.19百萬</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.41億</t>
+          <t>2.94億</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>154.59</t>
+          <t>156.23</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.64%</t>
+          <t>0.63%</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2,057.04億</t>
+          <t>2,078.86億</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="AG4" t="n">
-        <v>205704000000</v>
+        <v>207886000000</v>
       </c>
     </row>
     <row r="5">
@@ -1069,47 +1069,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>77.950</t>
+          <t>75.500</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>-2.450</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-3.143%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>4.00千</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>30.63萬</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2.57%</t>
+          <t>2.65%</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>256.50億</t>
+          <t>248.43億</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="AG5" t="n">
-        <v>25650000000</v>
+        <v>24843000000</v>
       </c>
     </row>
     <row r="6">
@@ -1223,22 +1223,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>+0.040</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>+0.302%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.20萬</t>
+          <t>2.00千</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>42.62萬</t>
+          <t>2.66萬</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1371,47 +1371,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.660</t>
+          <t>11.920</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>+0.020</t>
+          <t>+0.160</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>+0.172%</t>
+          <t>+1.361%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>43.90萬</t>
+          <t>4.26百萬</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.15百萬</t>
+          <t>5.06千萬</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>8.77</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>7.12%</t>
+          <t>6.96%</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>899.94億</t>
+          <t>920.00億</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="AG7" t="n">
-        <v>89994000000</v>
+        <v>92000000000</v>
       </c>
     </row>
     <row r="8">
@@ -1524,32 +1524,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.570</t>
+          <t>3.540</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-0.050</t>
+          <t>-0.010</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.381%</t>
+          <t>-0.282%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>64.70萬</t>
+          <t>79.60萬</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.32百萬</t>
+          <t>2.83百萬</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1559,12 +1559,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>8.40%</t>
+          <t>8.48%</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>70.42億</t>
+          <t>69.83億</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="AG8" t="n">
-        <v>7042000000</v>
+        <v>6983000000</v>
       </c>
     </row>
     <row r="9">
@@ -1677,32 +1677,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.250</t>
+          <t>9.350</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-0.040</t>
+          <t>+0.020</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.431%</t>
+          <t>+0.214%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.68百萬</t>
+          <t>3.13百萬</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.55千萬</t>
+          <t>2.92千萬</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>7.07%</t>
+          <t>7.00%</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>286.42億</t>
+          <t>289.52億</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="AG9" t="n">
-        <v>28642000000</v>
+        <v>28952000000</v>
       </c>
     </row>
     <row r="10">
@@ -1830,27 +1830,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.740</t>
+          <t>5.730</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>+0.300</t>
+          <t>-0.040</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>+5.515%</t>
+          <t>-0.693%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>8.91百萬</t>
+          <t>1.34千萬</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5.04千萬</t>
+          <t>7.68千萬</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1865,12 +1865,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>4.43%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>497.02億</t>
+          <t>496.15億</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="AG10" t="n">
-        <v>49702000000</v>
+        <v>49615000000</v>
       </c>
     </row>
     <row r="11">
@@ -1983,37 +1983,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.160</t>
+          <t>2.140</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-0.010</t>
+          <t>-0.020</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.461%</t>
+          <t>-0.926%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.13千萬</t>
+          <t>2.23千萬</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.43千萬</t>
+          <t>4.74千萬</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>202.06億</t>
+          <t>200.19億</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="AG11" t="n">
-        <v>20206000000</v>
+        <v>20019000000</v>
       </c>
     </row>
     <row r="12">
@@ -2137,22 +2137,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>+0.040</t>
+          <t>+0.010</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>+1.347%</t>
+          <t>+0.333%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>76.36萬</t>
+          <t>74.80萬</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2.29百萬</t>
+          <t>2.25百萬</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2290,22 +2290,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-0.070</t>
+          <t>-0.050</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-1.111%</t>
+          <t>-0.796%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.60百萬</t>
+          <t>3.57百萬</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.64千萬</t>
+          <t>2.22千萬</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2438,47 +2438,47 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>76.450</t>
+          <t>77.500</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>+1.000</t>
+          <t>+0.300</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>+1.325%</t>
+          <t>+0.389%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.43百萬</t>
+          <t>1.59百萬</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1.09億</t>
+          <t>1.23億</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>26.82</t>
+          <t>27.19</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1.76%</t>
+          <t>1.74%</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>500.80億</t>
+          <t>507.68億</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="AG14" t="n">
-        <v>50080000000</v>
+        <v>50768000000</v>
       </c>
     </row>
     <row r="15">
@@ -2591,32 +2591,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.520</t>
+          <t>9.670</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>+0.120</t>
+          <t>+0.140</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>+1.277%</t>
+          <t>+1.469%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>33.13萬</t>
+          <t>39.30萬</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3.14百萬</t>
+          <t>3.78百萬</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2626,12 +2626,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3.57%</t>
+          <t>3.52%</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>86.25億</t>
+          <t>87.61億</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2723,7 +2723,7 @@
         </is>
       </c>
       <c r="AG15" t="n">
-        <v>8625000000</v>
+        <v>8761000000</v>
       </c>
     </row>
     <row r="16">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5.23百萬</t>
+          <t>8.88百萬</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3.73百萬</t>
+          <t>6.31百萬</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2897,47 +2897,47 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.360</t>
+          <t>8.650</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>+0.270</t>
+          <t>+0.120</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>+3.337%</t>
+          <t>+1.407%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>7.79百萬</t>
+          <t>1.19千萬</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>6.44千萬</t>
+          <t>1.03億</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4.07%</t>
+          <t>3.93%</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>188.41億</t>
+          <t>194.94億</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="AG17" t="n">
-        <v>18841000000</v>
+        <v>19494000000</v>
       </c>
     </row>
     <row r="18">
@@ -3055,22 +3055,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>-0.010</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>-0.833%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.07百萬</t>
+          <t>5.14百萬</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.27百萬</t>
+          <t>6.20百萬</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3361,22 +3361,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>+0.080</t>
+          <t>-0.030</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>+2.020%</t>
+          <t>-0.737%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.03百萬</t>
+          <t>6.12百萬</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>8.13百萬</t>
+          <t>2.47千萬</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3509,47 +3509,47 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21.550</t>
+          <t>21.750</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>+0.400</t>
+          <t>-0.050</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>+1.891%</t>
+          <t>-0.229%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5.47百萬</t>
+          <t>5.08百萬</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.18億</t>
+          <t>1.11億</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>17.09</t>
+          <t>17.25</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.59%</t>
+          <t>0.58%</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>485.57億</t>
+          <t>490.07億</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -3641,7 +3641,7 @@
         </is>
       </c>
       <c r="AG21" t="n">
-        <v>48557000000</v>
+        <v>49007000000</v>
       </c>
     </row>
     <row r="22">
@@ -3662,32 +3662,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5.480</t>
+          <t>5.460</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-0.030</t>
+          <t>-0.050</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-0.544%</t>
+          <t>-0.907%</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.49千萬</t>
+          <t>2.05千萬</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>8.17千萬</t>
+          <t>1.12億</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>9.31</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3.47%</t>
+          <t>3.48%</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>703.10億</t>
+          <t>700.53億</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="AG22" t="n">
-        <v>70310000000</v>
+        <v>70053000000</v>
       </c>
     </row>
     <row r="23">
@@ -3815,47 +3815,47 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>263.800</t>
+          <t>265.000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-2.200</t>
+          <t>+1.400</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-0.827%</t>
+          <t>+0.531%</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>36.43萬</t>
+          <t>66.61萬</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>9.66千萬</t>
+          <t>1.78億</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>22.79%</t>
+          <t>22.69%</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1,742.06億</t>
+          <t>1,749.99億</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="AG23" t="n">
-        <v>174206000000</v>
+        <v>174999000000</v>
       </c>
     </row>
     <row r="24">
@@ -3968,47 +3968,47 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.740</t>
+          <t>8.050</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-0.010</t>
+          <t>+0.280</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-0.129%</t>
+          <t>+3.604%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>41.39萬</t>
+          <t>2.26百萬</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3.21百萬</t>
+          <t>1.83千萬</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3.49%</t>
+          <t>3.35%</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>83.47億</t>
+          <t>86.82億</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="AG24" t="n">
-        <v>8347000000</v>
+        <v>8682000000</v>
       </c>
     </row>
     <row r="25">
@@ -4121,32 +4121,32 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.090</t>
+          <t>4.120</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>+0.090</t>
+          <t>+0.030</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>+2.250%</t>
+          <t>+0.733%</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.59百萬</t>
+          <t>2.84百萬</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.05千萬</t>
+          <t>1.17千萬</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>15.39</t>
+          <t>15.51</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -4156,12 +4156,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2.05%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>132.10億</t>
+          <t>133.07億</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="AG25" t="n">
-        <v>13210000000</v>
+        <v>13307000000</v>
       </c>
     </row>
     <row r="26">
@@ -4274,47 +4274,47 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11.880</t>
+          <t>11.800</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>+0.100</t>
+          <t>+0.040</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>+0.849%</t>
+          <t>+0.340%</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6.34萬</t>
+          <t>29.88萬</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>75.50萬</t>
+          <t>3.53百萬</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>297.00</t>
+          <t>295.00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2.36%</t>
+          <t>2.37%</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>69.58億</t>
+          <t>69.11億</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="AG26" t="n">
-        <v>6958000000</v>
+        <v>6911000000</v>
       </c>
     </row>
     <row r="27">
@@ -4427,47 +4427,47 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.450</t>
+          <t>7.420</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>+0.380</t>
+          <t>-0.100</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>+5.375%</t>
+          <t>-1.330%</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5.63百萬</t>
+          <t>8.18百萬</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>4.11千萬</t>
+          <t>6.10千萬</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>14.88</t>
+          <t>14.82</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.43%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>228.40億</t>
+          <t>227.48億</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -4559,7 +4559,7 @@
         </is>
       </c>
       <c r="AG27" t="n">
-        <v>22840000000</v>
+        <v>22748000000</v>
       </c>
     </row>
     <row r="28">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.190</t>
+          <t>2.160</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -4605,22 +4605,22 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>6.05%</t>
+          <t>6.13%</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>76.98億</t>
+          <t>75.93億</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="AG28" t="n">
-        <v>7698000000</v>
+        <v>7593000000</v>
       </c>
     </row>
     <row r="29">
@@ -4733,47 +4733,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>348.200</t>
+          <t>348.600</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>+4.000</t>
+          <t>+0.600</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>+1.162%</t>
+          <t>+0.172%</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.69百萬</t>
+          <t>1.79百萬</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>5.88億</t>
+          <t>6.22億</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>35.14</t>
+          <t>35.18</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2.55%</t>
+          <t>2.54%</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>4,414.61億</t>
+          <t>4,419.68億</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -4865,7 +4865,7 @@
         </is>
       </c>
       <c r="AG29" t="n">
-        <v>441461000000</v>
+        <v>441968000000</v>
       </c>
     </row>
     <row r="30">
@@ -4886,32 +4886,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>21.300</t>
+          <t>21.350</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>+0.550</t>
+          <t>-0.050</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>+2.651%</t>
+          <t>-0.234%</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>38.85萬</t>
+          <t>1.57百萬</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>8.23百萬</t>
+          <t>3.37千萬</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>13.42</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4921,12 +4921,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2.96%</t>
+          <t>2.95%</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>247.47億</t>
+          <t>248.05億</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -5018,7 +5018,7 @@
         </is>
       </c>
       <c r="AG30" t="n">
-        <v>24747000000</v>
+        <v>24805000000</v>
       </c>
     </row>
     <row r="31">
@@ -5039,47 +5039,47 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.100</t>
+          <t>1.110</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>+0.030</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>+2.804%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>7.19百萬</t>
+          <t>1.26千萬</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>7.87百萬</t>
+          <t>1.40千萬</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>20.32</t>
+          <t>20.51</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>12.02%</t>
+          <t>11.91%</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>102.63億</t>
+          <t>103.56億</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="AG31" t="n">
-        <v>10263000000</v>
+        <v>10356000000</v>
       </c>
     </row>
     <row r="32">
@@ -5192,47 +5192,47 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.790</t>
+          <t>0.780</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>+0.040</t>
+          <t>-0.030</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>+5.333%</t>
+          <t>-3.704%</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>7.79千萬</t>
+          <t>2.60千萬</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5.58千萬</t>
+          <t>2.09千萬</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>10.22</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>5.06%</t>
+          <t>5.13%</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>207.69億</t>
+          <t>205.06億</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -5324,7 +5324,7 @@
         </is>
       </c>
       <c r="AG32" t="n">
-        <v>20769000000</v>
+        <v>20506000000</v>
       </c>
     </row>
     <row r="33">
@@ -5345,37 +5345,37 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3.100</t>
+          <t>3.150</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>+0.070</t>
+          <t>+0.050</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>+2.310%</t>
+          <t>+1.613%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>29.00萬</t>
+          <t>1.01百萬</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>88.55萬</t>
+          <t>3.12百萬</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>470.98億</t>
+          <t>478.58億</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -5473,7 +5473,7 @@
         </is>
       </c>
       <c r="AG33" t="n">
-        <v>47098000000</v>
+        <v>47858000000</v>
       </c>
     </row>
     <row r="34">
@@ -5494,32 +5494,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5.190</t>
+          <t>5.150</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>+0.060</t>
+          <t>-0.040</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>+1.170%</t>
+          <t>-0.771%</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2.38百萬</t>
+          <t>5.00百萬</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1.23千萬</t>
+          <t>2.58千萬</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -5529,12 +5529,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>16.52%</t>
+          <t>16.64%</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>148.21億</t>
+          <t>147.07億</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="AG34" t="n">
-        <v>14821000000</v>
+        <v>14707000000</v>
       </c>
     </row>
     <row r="35">
@@ -5647,47 +5647,47 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4.430</t>
+          <t>4.350</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>+0.110</t>
+          <t>-0.060</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>+2.546%</t>
+          <t>-1.361%</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.75百萬</t>
+          <t>1.54百萬</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>7.72百萬</t>
+          <t>6.69百萬</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2.48%</t>
+          <t>2.53%</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>157.25億</t>
+          <t>154.41億</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="AG35" t="n">
-        <v>15725000000</v>
+        <v>15441000000</v>
       </c>
     </row>
     <row r="36">
@@ -5800,47 +5800,47 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>67.000</t>
+          <t>65.150</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>+1.800</t>
+          <t>-0.250</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>+2.761%</t>
+          <t>-0.382%</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>65.80萬</t>
+          <t>53.30萬</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>4.40千萬</t>
+          <t>3.47千萬</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>5.82%</t>
+          <t>5.99%</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>276.51億</t>
+          <t>268.88億</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="AG36" t="n">
-        <v>27651000000</v>
+        <v>26888000000</v>
       </c>
     </row>
     <row r="37">
@@ -5953,47 +5953,47 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4.410</t>
+          <t>4.330</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>+0.090</t>
+          <t>-0.060</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>+2.083%</t>
+          <t>-1.367%</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>89.60萬</t>
+          <t>1.51百萬</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3.92百萬</t>
+          <t>6.55百萬</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>4.88%</t>
+          <t>4.97%</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>111.73億</t>
+          <t>109.71億</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -6085,7 +6085,7 @@
         </is>
       </c>
       <c r="AG37" t="n">
-        <v>11173000000</v>
+        <v>10971000000</v>
       </c>
     </row>
     <row r="38">
@@ -6106,47 +6106,47 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>10.400</t>
+          <t>11.240</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>+0.020</t>
+          <t>+0.840</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>+0.193%</t>
+          <t>+8.077%</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13.92萬</t>
+          <t>3.17百萬</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1.46百萬</t>
+          <t>3.58千萬</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>18.65</t>
+          <t>20.16</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1.92%</t>
+          <t>1.78%</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>167.67億</t>
+          <t>181.21億</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="AG38" t="n">
-        <v>16767000000</v>
+        <v>18121000000</v>
       </c>
     </row>
     <row r="39">
@@ -6255,32 +6255,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3.360</t>
+          <t>3.420</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>+0.060</t>
+          <t>+0.070</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>+1.818%</t>
+          <t>+2.090%</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2.28百萬</t>
+          <t>3.84百萬</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>7.63百萬</t>
+          <t>1.31千萬</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6290,12 +6290,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>6.31%</t>
+          <t>6.20%</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>80.35億</t>
+          <t>81.79億</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="AG39" t="n">
-        <v>8035000000</v>
+        <v>8179000000</v>
       </c>
     </row>
     <row r="40">
@@ -6408,32 +6408,32 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3.210</t>
+          <t>3.200</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>+0.110</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>+3.548%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.23千萬</t>
+          <t>8.40百萬</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>3.91千萬</t>
+          <t>2.70千萬</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6443,12 +6443,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>4.37%</t>
+          <t>4.38%</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>161.65億</t>
+          <t>161.15億</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -6540,7 +6540,7 @@
         </is>
       </c>
       <c r="AG40" t="n">
-        <v>16165000000</v>
+        <v>16115000000</v>
       </c>
     </row>
     <row r="41">
@@ -6561,47 +6561,47 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6.200</t>
+          <t>6.250</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>+0.100</t>
+          <t>+0.030</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>+1.639%</t>
+          <t>+0.482%</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.70百萬</t>
+          <t>1.38百萬</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1.05千萬</t>
+          <t>8.62百萬</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>7.41%</t>
+          <t>7.35%</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>88.90億</t>
+          <t>89.62億</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -6693,7 +6693,7 @@
         </is>
       </c>
       <c r="AG41" t="n">
-        <v>8890000000</v>
+        <v>8962000000</v>
       </c>
     </row>
     <row r="42">
@@ -6714,32 +6714,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>16.300</t>
+          <t>16.500</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>+0.420</t>
+          <t>+0.260</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>+2.645%</t>
+          <t>+1.601%</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>88.32萬</t>
+          <t>2.45百萬</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1.43千萬</t>
+          <t>4.03千萬</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -6749,12 +6749,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>4.29%</t>
+          <t>4.24%</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>295.52億</t>
+          <t>299.14億</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="AG42" t="n">
-        <v>29552000000</v>
+        <v>29914000000</v>
       </c>
     </row>
     <row r="43">
@@ -6867,32 +6867,32 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>20.000</t>
+          <t>19.920</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>+0.460</t>
+          <t>-0.040</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>+2.354%</t>
+          <t>-0.200%</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23.80萬</t>
+          <t>21.47萬</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>4.73百萬</t>
+          <t>4.28百萬</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6902,12 +6902,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>5.50%</t>
+          <t>5.52%</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>117.42億</t>
+          <t>116.95億</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -6999,7 +6999,7 @@
         </is>
       </c>
       <c r="AG43" t="n">
-        <v>11742000000</v>
+        <v>11695000000</v>
       </c>
     </row>
     <row r="44">
@@ -7020,37 +7020,37 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4.760</t>
+          <t>4.630</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>+0.070</t>
+          <t>-0.050</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>+1.493%</t>
+          <t>-1.068%</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>71.20萬</t>
+          <t>1.12百萬</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>3.37百萬</t>
+          <t>5.25百萬</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>38.51</t>
+          <t>37.46</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>66.30億</t>
+          <t>64.49億</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="AG44" t="n">
-        <v>6630000000</v>
+        <v>6449000000</v>
       </c>
     </row>
     <row r="45">
@@ -7169,47 +7169,47 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8.300</t>
+          <t>8.260</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>+0.150</t>
+          <t>-0.100</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>+1.840%</t>
+          <t>-1.196%</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.28百萬</t>
+          <t>1.73百萬</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1.05千萬</t>
+          <t>1.43千萬</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>16.86</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1.81%</t>
+          <t>1.82%</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>261.80億</t>
+          <t>260.53億</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -7301,7 +7301,7 @@
         </is>
       </c>
       <c r="AG45" t="n">
-        <v>26180000000</v>
+        <v>26053000000</v>
       </c>
     </row>
     <row r="46">
@@ -7322,47 +7322,47 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>15.520</t>
+          <t>15.660</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>+0.240</t>
+          <t>+0.080</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>+1.571%</t>
+          <t>+0.513%</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19.05萬</t>
+          <t>50.95萬</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2.96百萬</t>
+          <t>7.94百萬</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>51.49%</t>
+          <t>51.03%</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>280.50億</t>
+          <t>283.03億</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -7454,7 +7454,7 @@
         </is>
       </c>
       <c r="AG46" t="n">
-        <v>28050000000</v>
+        <v>28303000000</v>
       </c>
     </row>
     <row r="47">
@@ -7475,47 +7475,47 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2.750</t>
+          <t>2.760</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>+0.070</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>+2.612%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.51百萬</t>
+          <t>1.92百萬</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>4.16百萬</t>
+          <t>5.34百萬</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>14.55%</t>
+          <t>14.49%</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>138.93億</t>
+          <t>139.43億</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="AG47" t="n">
-        <v>13893000000</v>
+        <v>13943000000</v>
       </c>
     </row>
     <row r="48">
@@ -7628,37 +7628,37 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.230</t>
+          <t>4.570</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>+0.080</t>
+          <t>+0.120</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>+1.928%</t>
+          <t>+2.697%</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2.58百萬</t>
+          <t>3.61百萬</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1.09千萬</t>
+          <t>1.63千萬</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>69.17億</t>
+          <t>74.73億</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -7756,7 +7756,7 @@
         </is>
       </c>
       <c r="AG48" t="n">
-        <v>6917000000</v>
+        <v>7473000000</v>
       </c>
     </row>
     <row r="49">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.890</t>
+          <t>0.900</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -7792,17 +7792,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.10千萬</t>
+          <t>7.63百萬</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>9.85百萬</t>
+          <t>6.85百萬</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>19.20</t>
+          <t>19.41</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -7812,12 +7812,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>9.19%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>59.11億</t>
+          <t>59.77億</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -7909,7 +7909,7 @@
         </is>
       </c>
       <c r="AG49" t="n">
-        <v>5911000000</v>
+        <v>5977000000</v>
       </c>
     </row>
     <row r="50">
@@ -7930,37 +7930,37 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.225</t>
+          <t>0.230</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-0.008</t>
+          <t>+0.001</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-3.433%</t>
+          <t>+0.437%</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>3.80萬</t>
+          <t>36.20萬</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>8.60千</t>
+          <t>8.23萬</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -7970,7 +7970,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>50.46億</t>
+          <t>51.58億</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -8058,7 +8058,7 @@
         </is>
       </c>
       <c r="AG50" t="n">
-        <v>5046000000</v>
+        <v>5158000000</v>
       </c>
     </row>
     <row r="51">
@@ -8079,47 +8079,47 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>13.560</t>
+          <t>13.920</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>+0.120</t>
+          <t>+0.400</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>+0.893%</t>
+          <t>+2.959%</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.21百萬</t>
+          <t>2.65百萬</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1.62千萬</t>
+          <t>3.65千萬</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>58.28</t>
+          <t>59.83</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>0.48%</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>126.46億</t>
+          <t>129.81億</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -8211,7 +8211,7 @@
         </is>
       </c>
       <c r="AG51" t="n">
-        <v>12646000000</v>
+        <v>12981000000</v>
       </c>
     </row>
     <row r="52">
@@ -8232,37 +8232,37 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>301.600</t>
+          <t>304.200</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>+6.000</t>
+          <t>+0.600</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>+2.030%</t>
+          <t>+0.198%</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>9.57百萬</t>
+          <t>1.10千萬</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>28.75億</t>
+          <t>33.25億</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>10.44</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>29,039.78億</t>
+          <t>29,290.12億</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -8364,7 +8364,7 @@
         </is>
       </c>
       <c r="AG52" t="n">
-        <v>2903978000000</v>
+        <v>2929012000000</v>
       </c>
     </row>
     <row r="53">
@@ -8385,47 +8385,47 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>17.560</t>
+          <t>18.000</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-0.240</t>
+          <t>+0.080</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-1.348%</t>
+          <t>+0.446%</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2.22百萬</t>
+          <t>2.50百萬</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>3.89千萬</t>
+          <t>4.50千萬</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>38.94</t>
+          <t>39.91</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>0.83%</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>129.34億</t>
+          <t>132.58億</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="AG53" t="n">
-        <v>12934000000</v>
+        <v>13258000000</v>
       </c>
     </row>
     <row r="54">
@@ -8538,32 +8538,32 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3.880</t>
+          <t>3.920</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>+0.040</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+1.031%</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15.00萬</t>
+          <t>66.65萬</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>58.27萬</t>
+          <t>2.62百萬</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -8573,12 +8573,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>14.20%</t>
+          <t>14.06%</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>60.79億</t>
+          <t>61.42億</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -8670,7 +8670,7 @@
         </is>
       </c>
       <c r="AG54" t="n">
-        <v>6079000000</v>
+        <v>6142000000</v>
       </c>
     </row>
     <row r="55">
@@ -8691,47 +8691,47 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3.350</t>
+          <t>3.400</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>+0.080</t>
+          <t>+0.040</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>+2.446%</t>
+          <t>+1.190%</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.52百萬</t>
+          <t>2.88百萬</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>5.03百萬</t>
+          <t>9.68百萬</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>6.87%</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>88.04億</t>
+          <t>89.35億</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -8823,7 +8823,7 @@
         </is>
       </c>
       <c r="AG55" t="n">
-        <v>8804000000</v>
+        <v>8935000000</v>
       </c>
     </row>
     <row r="56">
@@ -8844,32 +8844,32 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16.720</t>
+          <t>16.740</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>+0.320</t>
+          <t>-0.080</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>+1.951%</t>
+          <t>-0.476%</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.02百萬</t>
+          <t>1.31百萬</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1.71千萬</t>
+          <t>2.19千萬</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -8879,12 +8879,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2.20%</t>
+          <t>2.19%</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>126.32億</t>
+          <t>126.47億</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -8976,7 +8976,7 @@
         </is>
       </c>
       <c r="AG56" t="n">
-        <v>12632000000</v>
+        <v>12647000000</v>
       </c>
     </row>
     <row r="57">
@@ -8997,37 +8997,37 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>30.500</t>
+          <t>31.600</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>+0.750</t>
+          <t>+0.600</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>+2.521%</t>
+          <t>+1.935%</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>81.65萬</t>
+          <t>1.22百萬</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2.46千萬</t>
+          <t>3.82千萬</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>13.61</t>
+          <t>14.10</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -9037,7 +9037,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>312.03億</t>
+          <t>323.28億</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="AG57" t="n">
-        <v>31203000000</v>
+        <v>32328000000</v>
       </c>
     </row>
     <row r="58">
@@ -9142,47 +9142,47 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>15.420</t>
+          <t>15.700</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>+0.420</t>
+          <t>+0.360</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>+2.800%</t>
+          <t>+2.347%</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>7.90萬</t>
+          <t>25.10萬</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1.22百萬</t>
+          <t>3.92百萬</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>14.46%</t>
+          <t>14.20%</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>83.38億</t>
+          <t>84.89億</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -9274,7 +9274,7 @@
         </is>
       </c>
       <c r="AG58" t="n">
-        <v>8338000000</v>
+        <v>8489000000</v>
       </c>
     </row>
     <row r="59">
@@ -9295,37 +9295,37 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>15.660</t>
+          <t>16.260</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>+0.100</t>
+          <t>+0.380</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>+0.643%</t>
+          <t>+2.393%</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.38百萬</t>
+          <t>1.75百萬</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2.16千萬</t>
+          <t>2.84千萬</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>38.75</t>
+          <t>40.24</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>347.33億</t>
+          <t>360.64億</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -9423,7 +9423,7 @@
         </is>
       </c>
       <c r="AG59" t="n">
-        <v>34733000000</v>
+        <v>36064000000</v>
       </c>
     </row>
     <row r="60">
@@ -9459,12 +9459,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.40萬</t>
+          <t>2.40萬</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>3.58萬</t>
+          <t>6.13萬</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -9593,47 +9593,47 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>8.920</t>
+          <t>9.000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>+0.260</t>
+          <t>+0.060</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>+3.002%</t>
+          <t>+0.671%</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.65百萬</t>
+          <t>1.66百萬</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1.45千萬</t>
+          <t>1.49千萬</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>4.48%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>100.45億</t>
+          <t>101.35億</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -9725,7 +9725,7 @@
         </is>
       </c>
       <c r="AG61" t="n">
-        <v>10045000000</v>
+        <v>10135000000</v>
       </c>
     </row>
     <row r="62">
@@ -9746,47 +9746,47 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.770</t>
+          <t>2.820</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>+0.040</t>
+          <t>+0.070</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>+1.465%</t>
+          <t>+2.545%</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>49.00萬</t>
+          <t>1.21百萬</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1.36百萬</t>
+          <t>3.40百萬</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>9.44</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2.63%</t>
+          <t>2.58%</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>77.14億</t>
+          <t>78.54億</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -9878,7 +9878,7 @@
         </is>
       </c>
       <c r="AG62" t="n">
-        <v>7714000000</v>
+        <v>7854000000</v>
       </c>
     </row>
     <row r="63">
@@ -9899,32 +9899,32 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3.490</t>
+          <t>3.510</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>+0.040</t>
+          <t>+0.010</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>+1.159%</t>
+          <t>+0.286%</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>19.70萬</t>
+          <t>38.50萬</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>68.63萬</t>
+          <t>1.35百萬</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -9934,12 +9934,12 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>4.30%</t>
+          <t>4.27%</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>58.41億</t>
+          <t>58.74億</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -10031,7 +10031,7 @@
         </is>
       </c>
       <c r="AG63" t="n">
-        <v>5841000000</v>
+        <v>5874000000</v>
       </c>
     </row>
     <row r="64">
@@ -10052,47 +10052,47 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>12.800</t>
+          <t>12.680</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>+0.400</t>
+          <t>-0.140</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>+3.226%</t>
+          <t>-1.092%</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>3.50百萬</t>
+          <t>2.98百萬</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>4.46千萬</t>
+          <t>3.80千萬</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>4.70%</t>
+          <t>4.74%</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>313.95億</t>
+          <t>311.00億</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -10184,7 +10184,7 @@
         </is>
       </c>
       <c r="AG64" t="n">
-        <v>31395000000</v>
+        <v>31100000000</v>
       </c>
     </row>
     <row r="65">
@@ -10205,47 +10205,47 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>15.500</t>
+          <t>15.640</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>+0.300</t>
+          <t>+0.440</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>+1.974%</t>
+          <t>+2.895%</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>3.53百萬</t>
+          <t>1.40千萬</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>5.47千萬</t>
+          <t>2.18億</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>9.16%</t>
+          <t>9.08%</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>622.96億</t>
+          <t>628.59億</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -10337,7 +10337,7 @@
         </is>
       </c>
       <c r="AG65" t="n">
-        <v>62296000000</v>
+        <v>62859000000</v>
       </c>
     </row>
     <row r="66">
@@ -10358,47 +10358,47 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>41.400</t>
+          <t>41.700</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>+1.300</t>
+          <t>+0.350</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>+3.242%</t>
+          <t>+0.846%</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2.41百萬</t>
+          <t>2.26百萬</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>9.93千萬</t>
+          <t>9.39千萬</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2.03%</t>
+          <t>2.01%</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>999.21億</t>
+          <t>1,006.45億</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="AG66" t="n">
-        <v>99921000000</v>
+        <v>100645000000</v>
       </c>
     </row>
     <row r="67">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>9.810</t>
+          <t>10.000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -10521,37 +10521,37 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>+2.508%</t>
+          <t>+2.459%</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3.46千萬</t>
+          <t>7.89千萬</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>3.38億</t>
+          <t>7.89億</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>15.09%</t>
+          <t>14.80%</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>4,673.23億</t>
+          <t>4,763.75億</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -10643,7 +10643,7 @@
         </is>
       </c>
       <c r="AG67" t="n">
-        <v>467323000000</v>
+        <v>476375000000</v>
       </c>
     </row>
     <row r="68">
@@ -10664,32 +10664,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>30.800</t>
+          <t>30.950</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>+0.100</t>
+          <t>-0.100</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>+0.326%</t>
+          <t>-0.322%</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.02百萬</t>
+          <t>3.12百萬</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>3.14千萬</t>
+          <t>9.62千萬</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -10699,12 +10699,12 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>9.46%</t>
+          <t>9.42%</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>400.28億</t>
+          <t>402.23億</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="AG68" t="n">
-        <v>40028000000</v>
+        <v>40223000000</v>
       </c>
     </row>
     <row r="69">
@@ -10817,47 +10817,47 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2.420</t>
+          <t>2.440</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>+0.020</t>
+          <t>-0.010</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>+0.833%</t>
+          <t>-0.408%</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>14.20萬</t>
+          <t>36.40萬</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>34.31萬</t>
+          <t>88.82萬</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>8.26%</t>
+          <t>8.20%</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>60.17億</t>
+          <t>60.66億</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -10949,7 +10949,7 @@
         </is>
       </c>
       <c r="AG69" t="n">
-        <v>6017000000</v>
+        <v>6066000000</v>
       </c>
     </row>
     <row r="70">
@@ -10970,47 +10970,47 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>51.850</t>
+          <t>52.500</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>+0.050</t>
+          <t>+0.750</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>+0.097%</t>
+          <t>+1.449%</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.26千萬</t>
+          <t>4.64千萬</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>6.53億</t>
+          <t>24.38億</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>7.83%</t>
+          <t>7.73%</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>11,076.63億</t>
+          <t>11,215.48億</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -11102,7 +11102,7 @@
         </is>
       </c>
       <c r="AG70" t="n">
-        <v>1107663000000</v>
+        <v>1121548000000</v>
       </c>
     </row>
     <row r="71">
@@ -11123,47 +11123,47 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>8.070</t>
+          <t>8.200</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>+0.220</t>
+          <t>+0.110</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>+2.803%</t>
+          <t>+1.360%</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.40百萬</t>
+          <t>1.36百萬</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1.12千萬</t>
+          <t>1.11千萬</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>5.70%</t>
+          <t>5.61%</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>290.04億</t>
+          <t>294.71億</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -11255,7 +11255,7 @@
         </is>
       </c>
       <c r="AG71" t="n">
-        <v>29004000000</v>
+        <v>29471000000</v>
       </c>
     </row>
     <row r="72">
@@ -11276,47 +11276,47 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>12.300</t>
+          <t>11.940</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>+0.260</t>
+          <t>-0.360</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>+2.159%</t>
+          <t>-2.927%</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2.82千萬</t>
+          <t>3.63千萬</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>3.49億</t>
+          <t>4.37億</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>22.10</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2.20%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>1,093.66億</t>
+          <t>1,061.65億</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -11408,7 +11408,7 @@
         </is>
       </c>
       <c r="AG72" t="n">
-        <v>109366000000</v>
+        <v>106165000000</v>
       </c>
     </row>
     <row r="73">
@@ -11429,37 +11429,37 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>17.760</t>
+          <t>17.080</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>+0.620</t>
+          <t>-0.640</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>+3.617%</t>
+          <t>-3.612%</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2.12千萬</t>
+          <t>3.33千萬</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>3.74億</t>
+          <t>5.74億</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>1,403.40億</t>
+          <t>1,349.66億</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -11557,7 +11557,7 @@
         </is>
       </c>
       <c r="AG73" t="n">
-        <v>140340000000</v>
+        <v>134966000000</v>
       </c>
     </row>
     <row r="74">
@@ -11578,47 +11578,47 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>38.100</t>
+          <t>38.300</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>+0.800</t>
+          <t>-0.050</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>+2.145%</t>
+          <t>-0.130%</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>66.40萬</t>
+          <t>1.24百萬</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2.53千萬</t>
+          <t>4.72千萬</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>11.17</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>5.46%</t>
+          <t>5.44%</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>442.77億</t>
+          <t>445.09億</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -11710,7 +11710,7 @@
         </is>
       </c>
       <c r="AG74" t="n">
-        <v>44277000000</v>
+        <v>44509000000</v>
       </c>
     </row>
     <row r="75">
@@ -11731,37 +11731,37 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.610</t>
+          <t>0.620</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>+0.010</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>+1.667%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>6.20百萬</t>
+          <t>1.48千萬</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>3.80百萬</t>
+          <t>9.21百萬</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>77.28</t>
+          <t>78.55</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>164.55億</t>
+          <t>167.25億</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -11855,7 +11855,7 @@
         </is>
       </c>
       <c r="AG75" t="n">
-        <v>16455000000</v>
+        <v>16725000000</v>
       </c>
     </row>
     <row r="76">
@@ -11876,47 +11876,47 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>9.870</t>
+          <t>9.730</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>+0.300</t>
+          <t>-0.160</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>+3.135%</t>
+          <t>-1.618%</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>75.19萬</t>
+          <t>1.58百萬</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>7.38百萬</t>
+          <t>1.54千萬</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>16.12</t>
+          <t>15.89</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>1.76%</t>
+          <t>1.79%</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>446.35億</t>
+          <t>440.02億</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -12008,7 +12008,7 @@
         </is>
       </c>
       <c r="AG76" t="n">
-        <v>44635000000</v>
+        <v>44002000000</v>
       </c>
     </row>
     <row r="77">
@@ -12029,47 +12029,47 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>22.500</t>
+          <t>22.750</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>+0.100</t>
+          <t>+0.200</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>+0.446%</t>
+          <t>+0.887%</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>6.22百萬</t>
+          <t>1.13千萬</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1.41億</t>
+          <t>2.59億</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>13.82%</t>
+          <t>13.67%</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>759.93億</t>
+          <t>768.38億</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -12161,7 +12161,7 @@
         </is>
       </c>
       <c r="AG77" t="n">
-        <v>75993000000</v>
+        <v>76838000000</v>
       </c>
     </row>
     <row r="78">
@@ -12182,47 +12182,47 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>8.560</t>
+          <t>8.450</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>+0.260</t>
+          <t>-0.100</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>+3.133%</t>
+          <t>-1.170%</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.26千萬</t>
+          <t>1.70千萬</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1.07億</t>
+          <t>1.44億</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2.10%</t>
+          <t>2.13%</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>1,021.48億</t>
+          <t>1,008.36億</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -12314,7 +12314,7 @@
         </is>
       </c>
       <c r="AG78" t="n">
-        <v>102148000000</v>
+        <v>100836000000</v>
       </c>
     </row>
     <row r="79">
@@ -12335,32 +12335,32 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>17.720</t>
+          <t>17.640</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>+0.220</t>
+          <t>-0.080</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>+1.257%</t>
+          <t>-0.451%</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1.22百萬</t>
+          <t>2.19百萬</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2.15千萬</t>
+          <t>3.85千萬</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -12370,12 +12370,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>5.18%</t>
+          <t>5.21%</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>237.77億</t>
+          <t>236.70億</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -12467,7 +12467,7 @@
         </is>
       </c>
       <c r="AG79" t="n">
-        <v>23777000000</v>
+        <v>23670000000</v>
       </c>
     </row>
     <row r="80">
@@ -12488,37 +12488,37 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>13.820</t>
+          <t>12.920</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>-0.020</t>
+          <t>-0.580</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-0.145%</t>
+          <t>-4.296%</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.58百萬</t>
+          <t>2.13百萬</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2.19千萬</t>
+          <t>2.77千萬</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1,949.26</t>
+          <t>1,822.32</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>65.85</t>
+          <t>61.56</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -12528,7 +12528,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>236.59億</t>
+          <t>221.18億</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -12612,7 +12612,7 @@
         </is>
       </c>
       <c r="AG80" t="n">
-        <v>23659000000</v>
+        <v>22118000000</v>
       </c>
     </row>
     <row r="81">
@@ -12638,22 +12638,22 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>+0.120</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>+3.343%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>3.73百萬</t>
+          <t>5.62百萬</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>1.37千萬</t>
+          <t>2.09千萬</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -12786,47 +12786,47 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4.460</t>
+          <t>4.300</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>+0.090</t>
+          <t>-0.170</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>+2.059%</t>
+          <t>-3.803%</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.77千萬</t>
+          <t>5.02千萬</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>7.88千萬</t>
+          <t>2.15億</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>1.79%</t>
+          <t>1.86%</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>839.16億</t>
+          <t>809.05億</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -12918,7 +12918,7 @@
         </is>
       </c>
       <c r="AG82" t="n">
-        <v>83916000000</v>
+        <v>80905000000</v>
       </c>
     </row>
     <row r="83">
@@ -12939,47 +12939,47 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2.210</t>
+          <t>2.220</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>-0.030</t>
+          <t>-0.010</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>-1.339%</t>
+          <t>-0.448%</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>62.70萬</t>
+          <t>73.30萬</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1.39百萬</t>
+          <t>1.62百萬</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>48.23</t>
+          <t>48.44</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>1.84%</t>
+          <t>1.83%</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>59.08億</t>
+          <t>59.34億</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -13067,7 +13067,7 @@
         </is>
       </c>
       <c r="AG83" t="n">
-        <v>5908000000</v>
+        <v>5934000000</v>
       </c>
     </row>
     <row r="84">
@@ -13088,37 +13088,37 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>10.140</t>
+          <t>10.060</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>+0.080</t>
+          <t>-0.080</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>+0.795%</t>
+          <t>-0.789%</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>52.20萬</t>
+          <t>69.40萬</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>5.26百萬</t>
+          <t>7.04百萬</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>119.44</t>
+          <t>118.49</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -13128,7 +13128,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>146.09億</t>
+          <t>144.94億</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -13216,7 +13216,7 @@
         </is>
       </c>
       <c r="AG84" t="n">
-        <v>14609000000</v>
+        <v>14494000000</v>
       </c>
     </row>
     <row r="85">
@@ -13237,7 +13237,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2.580</t>
+          <t>2.630</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -13262,22 +13262,22 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>86.03</t>
+          <t>87.70</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>1.94%</t>
+          <t>1.90%</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>67.04億</t>
+          <t>68.34億</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -13369,7 +13369,7 @@
         </is>
       </c>
       <c r="AG85" t="n">
-        <v>6704000000</v>
+        <v>6834000000</v>
       </c>
     </row>
     <row r="86">
@@ -13390,37 +13390,37 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.420</t>
+          <t>5.460</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>-0.080</t>
+          <t>+0.020</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>-1.455%</t>
+          <t>+0.368%</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.29百萬</t>
+          <t>1.44百萬</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>6.96百萬</t>
+          <t>7.80百萬</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>10.80</t>
+          <t>10.88</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -13430,7 +13430,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>159.25億</t>
+          <t>160.43億</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -13518,7 +13518,7 @@
         </is>
       </c>
       <c r="AG86" t="n">
-        <v>15925000000</v>
+        <v>16043000000</v>
       </c>
     </row>
     <row r="87">
@@ -13539,47 +13539,47 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3.240</t>
+          <t>3.300</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>+0.050</t>
+          <t>+0.060</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>+1.567%</t>
+          <t>+1.852%</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>5.56百萬</t>
+          <t>4.68百萬</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>1.81千萬</t>
+          <t>1.53千萬</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>9.20%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>121.14億</t>
+          <t>123.39億</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="AG87" t="n">
-        <v>12114000000</v>
+        <v>12339000000</v>
       </c>
     </row>
     <row r="88">
@@ -13692,47 +13692,47 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>17.420</t>
+          <t>17.300</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>+0.860</t>
+          <t>-0.140</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>+5.193%</t>
+          <t>-0.803%</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>3.89百萬</t>
+          <t>7.56百萬</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>6.75千萬</t>
+          <t>1.32億</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>15.20</t>
+          <t>15.09</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>5.82%</t>
+          <t>5.86%</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>222.18億</t>
+          <t>220.65億</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -13824,7 +13824,7 @@
         </is>
       </c>
       <c r="AG88" t="n">
-        <v>22218000000</v>
+        <v>22065000000</v>
       </c>
     </row>
     <row r="89">
@@ -13845,47 +13845,47 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>77.150</t>
+          <t>77.850</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>+1.300</t>
+          <t>+0.950</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>+1.714%</t>
+          <t>+1.235%</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.14千萬</t>
+          <t>1.34千萬</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>8.72億</t>
+          <t>10.39億</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>15.96</t>
+          <t>16.10</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>1.88%</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>9,207.71億</t>
+          <t>9,291.25億</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -13977,7 +13977,7 @@
         </is>
       </c>
       <c r="AG89" t="n">
-        <v>920771000000</v>
+        <v>929125000000</v>
       </c>
     </row>
     <row r="90">
@@ -13998,37 +13998,37 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2.410</t>
+          <t>2.480</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>+0.040</t>
+          <t>+0.030</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>+1.688%</t>
+          <t>+1.224%</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.42百萬</t>
+          <t>1.62百萬</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>3.40百萬</t>
+          <t>3.96百萬</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>28.94</t>
+          <t>29.78</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -14038,7 +14038,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>111.58億</t>
+          <t>114.82億</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -14126,7 +14126,7 @@
         </is>
       </c>
       <c r="AG90" t="n">
-        <v>11158000000</v>
+        <v>11482000000</v>
       </c>
     </row>
     <row r="91">
@@ -14147,47 +14147,47 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>25.600</t>
+          <t>25.850</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>+0.350</t>
+          <t>+0.100</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>+1.386%</t>
+          <t>+0.388%</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1.71百萬</t>
+          <t>2.08百萬</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>4.40千萬</t>
+          <t>5.39千萬</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>12.50%</t>
+          <t>12.38%</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>686.70億</t>
+          <t>693.40億</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -14279,7 +14279,7 @@
         </is>
       </c>
       <c r="AG91" t="n">
-        <v>68670000000</v>
+        <v>69340000000</v>
       </c>
     </row>
     <row r="92">
@@ -14300,47 +14300,47 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>6.490</t>
+          <t>6.680</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>+0.060</t>
+          <t>+0.050</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>+0.933%</t>
+          <t>+0.754%</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>6.87百萬</t>
+          <t>2.89百萬</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>4.52千萬</t>
+          <t>1.92千萬</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>16.65</t>
+          <t>17.13</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>1.14%</t>
+          <t>1.11%</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>162.89億</t>
+          <t>167.66億</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -14432,7 +14432,7 @@
         </is>
       </c>
       <c r="AG92" t="n">
-        <v>16289000000</v>
+        <v>16766000000</v>
       </c>
     </row>
     <row r="93">
@@ -14453,32 +14453,32 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>18.520</t>
+          <t>18.740</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>+0.600</t>
+          <t>+0.220</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>+3.348%</t>
+          <t>+1.188%</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.95百萬</t>
+          <t>2.47百萬</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>3.56千萬</t>
+          <t>4.62千萬</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -14488,12 +14488,12 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>9.52%</t>
+          <t>9.41%</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>191.52億</t>
+          <t>193.79億</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -14585,7 +14585,7 @@
         </is>
       </c>
       <c r="AG93" t="n">
-        <v>19152000000</v>
+        <v>19379000000</v>
       </c>
     </row>
     <row r="94">
@@ -14606,37 +14606,37 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>26.250</t>
+          <t>26.200</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>+1.000</t>
+          <t>+0.050</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>+3.960%</t>
+          <t>+0.191%</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.32千萬</t>
+          <t>1.09千萬</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>3.50億</t>
+          <t>2.86億</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>16.75</t>
+          <t>16.72</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -14646,7 +14646,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>341.65億</t>
+          <t>341.00億</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -14734,7 +14734,7 @@
         </is>
       </c>
       <c r="AG94" t="n">
-        <v>34165000000</v>
+        <v>34100000000</v>
       </c>
     </row>
     <row r="95">
@@ -14755,37 +14755,37 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>3.970</t>
+          <t>4.000</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>+0.060</t>
+          <t>+0.020</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>+1.535%</t>
+          <t>+0.503%</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23.90萬</t>
+          <t>1.02百萬</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>94.25萬</t>
+          <t>4.09百萬</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>11.14</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -14795,7 +14795,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>82.08億</t>
+          <t>82.70億</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -14883,7 +14883,7 @@
         </is>
       </c>
       <c r="AG95" t="n">
-        <v>8208000000</v>
+        <v>8270000000</v>
       </c>
     </row>
     <row r="96">
@@ -14904,47 +14904,47 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>12.600</t>
+          <t>12.920</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>+0.680</t>
+          <t>+0.400</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>+5.705%</t>
+          <t>+3.195%</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>7.53百萬</t>
+          <t>6.95百萬</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>9.42千萬</t>
+          <t>8.96千萬</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>29.03</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>1.98%</t>
+          <t>1.94%</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>331.99億</t>
+          <t>340.42億</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -15036,7 +15036,7 @@
         </is>
       </c>
       <c r="AG96" t="n">
-        <v>33199000000</v>
+        <v>34042000000</v>
       </c>
     </row>
     <row r="97">
@@ -15057,47 +15057,47 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>7.850</t>
+          <t>8.300</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>+0.210</t>
+          <t>+0.390</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>+2.749%</t>
+          <t>+4.930%</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>5.37百萬</t>
+          <t>1.88千萬</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>4.17千萬</t>
+          <t>1.55億</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>13.38%</t>
+          <t>12.65%</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>726.46億</t>
+          <t>768.10億</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -15189,7 +15189,7 @@
         </is>
       </c>
       <c r="AG97" t="n">
-        <v>72646000000</v>
+        <v>76810000000</v>
       </c>
     </row>
     <row r="98">
@@ -15210,32 +15210,32 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>4.250</t>
+          <t>4.230</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>-0.040</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>-0.932%</t>
+          <t>0.000%</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>85.50萬</t>
+          <t>55.10萬</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>3.65百萬</t>
+          <t>2.32百萬</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -15245,12 +15245,12 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>2.54%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>103.68億</t>
+          <t>103.19億</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -15342,7 +15342,7 @@
         </is>
       </c>
       <c r="AG98" t="n">
-        <v>10368000000</v>
+        <v>10319000000</v>
       </c>
     </row>
     <row r="99">
@@ -15363,37 +15363,37 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>33.750</t>
+          <t>33.150</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>-0.250</t>
+          <t>-0.450</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>-0.735%</t>
+          <t>-1.339%</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>92.20萬</t>
+          <t>2.74百萬</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>3.12千萬</t>
+          <t>9.06千萬</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>39.24</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>95.96億</t>
+          <t>94.26億</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -15495,7 +15495,7 @@
         </is>
       </c>
       <c r="AG99" t="n">
-        <v>9596000000</v>
+        <v>9426000000</v>
       </c>
     </row>
     <row r="100">
@@ -15516,37 +15516,37 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>16.360</t>
+          <t>15.680</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>+0.400</t>
+          <t>-0.920</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>+2.506%</t>
+          <t>-5.542%</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.91百萬</t>
+          <t>4.33百萬</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>3.13千萬</t>
+          <t>6.91千萬</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>34.97</t>
+          <t>33.51</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -15556,7 +15556,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>136.50億</t>
+          <t>130.83億</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -15644,7 +15644,7 @@
         </is>
       </c>
       <c r="AG100" t="n">
-        <v>13650000000</v>
+        <v>13083000000</v>
       </c>
     </row>
     <row r="101">
@@ -15665,47 +15665,47 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>5.200</t>
+          <t>5.350</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>+0.060</t>
+          <t>+0.160</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>+1.167%</t>
+          <t>+3.083%</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>66.95萬</t>
+          <t>2.61百萬</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>3.47百萬</t>
+          <t>1.39千萬</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>13.44</t>
+          <t>13.83</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>2.17%</t>
+          <t>2.11%</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>120.66億</t>
+          <t>124.14億</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -15797,7 +15797,7 @@
         </is>
       </c>
       <c r="AG101" t="n">
-        <v>12066000000</v>
+        <v>12414000000</v>
       </c>
     </row>
     <row r="102">
@@ -15818,47 +15818,47 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3.830</t>
+          <t>3.850</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>+0.110</t>
+          <t>+0.010</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>+2.957%</t>
+          <t>+0.260%</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>3.51百萬</t>
+          <t>1.99百萬</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1.32千萬</t>
+          <t>7.66百萬</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>20.96</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>3.13%</t>
+          <t>3.12%</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>91.27億</t>
+          <t>91.75億</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -15950,7 +15950,7 @@
         </is>
       </c>
       <c r="AG102" t="n">
-        <v>9127000000</v>
+        <v>9175000000</v>
       </c>
     </row>
     <row r="103">
@@ -15971,32 +15971,32 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>5.950</t>
+          <t>5.970</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>+0.060</t>
+          <t>+0.010</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>+1.019%</t>
+          <t>+0.168%</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>51.30萬</t>
+          <t>57.20萬</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>3.05百萬</t>
+          <t>3.40百萬</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>20.70</t>
+          <t>20.77</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -16006,12 +16006,12 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>2.94%</t>
+          <t>2.93%</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>62.10億</t>
+          <t>62.31億</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -16103,7 +16103,7 @@
         </is>
       </c>
       <c r="AG103" t="n">
-        <v>6210000000</v>
+        <v>6231000000</v>
       </c>
     </row>
     <row r="104">
@@ -16124,47 +16124,47 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>22.450</t>
+          <t>22.800</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>+0.250</t>
+          <t>+0.450</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>+1.126%</t>
+          <t>+2.013%</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>23.95萬</t>
+          <t>41.86萬</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>5.31百萬</t>
+          <t>9.44百萬</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>7.09%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>69.56億</t>
+          <t>70.64億</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -16256,7 +16256,7 @@
         </is>
       </c>
       <c r="AG104" t="n">
-        <v>6956000000</v>
+        <v>7064000000</v>
       </c>
     </row>
     <row r="105">
@@ -16277,32 +16277,32 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4.530</t>
+          <t>4.500</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>+0.050</t>
+          <t>-0.030</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>+1.116%</t>
+          <t>-0.662%</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>48.85萬</t>
+          <t>73.85萬</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2.20百萬</t>
+          <t>3.33百萬</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>11.14</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -16312,12 +16312,12 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>2.65%</t>
+          <t>2.67%</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>58.74億</t>
+          <t>58.35億</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -16409,7 +16409,7 @@
         </is>
       </c>
       <c r="AG105" t="n">
-        <v>5874000000</v>
+        <v>5835000000</v>
       </c>
     </row>
     <row r="106">
@@ -16430,37 +16430,37 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5.300</t>
+          <t>5.310</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>+0.130</t>
+          <t>+0.010</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>+2.515%</t>
+          <t>+0.189%</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>3.53百萬</t>
+          <t>5.33百萬</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>1.87千萬</t>
+          <t>2.83千萬</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -16470,7 +16470,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>129.26億</t>
+          <t>129.50億</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -16562,7 +16562,7 @@
         </is>
       </c>
       <c r="AG106" t="n">
-        <v>12926000000</v>
+        <v>12950000000</v>
       </c>
     </row>
     <row r="107">
@@ -16583,47 +16583,47 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>21.000</t>
+          <t>21.500</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>+0.050</t>
+          <t>+0.300</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>+0.239%</t>
+          <t>+1.415%</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1.49百萬</t>
+          <t>1.34百萬</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>3.13千萬</t>
+          <t>2.84千萬</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>21.93</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>1.28%</t>
+          <t>1.25%</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>219.85億</t>
+          <t>225.08億</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -16715,7 +16715,7 @@
         </is>
       </c>
       <c r="AG107" t="n">
-        <v>21985000000</v>
+        <v>22508000000</v>
       </c>
     </row>
     <row r="108">
@@ -16741,22 +16741,22 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>-0.440</t>
+          <t>+0.060</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>-3.754%</t>
+          <t>+0.535%</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>32.36萬</t>
+          <t>53.88萬</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>3.65百萬</t>
+          <t>6.03百萬</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -16889,47 +16889,47 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>11.540</t>
+          <t>11.340</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>+0.380</t>
+          <t>+0.020</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>+3.405%</t>
+          <t>+0.177%</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>36.24萬</t>
+          <t>22.54萬</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>4.16百萬</t>
+          <t>2.54百萬</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>21.08</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>1.36%</t>
+          <t>1.38%</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>53.79億</t>
+          <t>52.86億</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="AG109" t="n">
-        <v>5379000000</v>
+        <v>5286000000</v>
       </c>
     </row>
     <row r="110">
@@ -17042,47 +17042,47 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>6.120</t>
+          <t>6.280</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>+0.120</t>
+          <t>+0.150</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>+2.000%</t>
+          <t>+2.447%</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>1.40百萬</t>
+          <t>1.97百萬</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>8.58百萬</t>
+          <t>1.20千萬</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>4.58%</t>
+          <t>4.46%</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>110.68億</t>
+          <t>113.58億</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -17174,7 +17174,7 @@
         </is>
       </c>
       <c r="AG110" t="n">
-        <v>11068000000</v>
+        <v>11358000000</v>
       </c>
     </row>
     <row r="111">
@@ -17195,7 +17195,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1.870</t>
+          <t>1.900</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -17205,37 +17205,37 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>+1.630%</t>
+          <t>+1.604%</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2.90百萬</t>
+          <t>1.29千萬</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>5.40百萬</t>
+          <t>2.45千萬</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>19.57%</t>
+          <t>19.26%</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>53.63億</t>
+          <t>54.49億</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -17327,7 +17327,7 @@
         </is>
       </c>
       <c r="AG111" t="n">
-        <v>5363000000</v>
+        <v>5449000000</v>
       </c>
     </row>
     <row r="112">
@@ -17348,47 +17348,47 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>6.160</t>
+          <t>6.440</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>+0.060</t>
+          <t>+0.190</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>+0.984%</t>
+          <t>+3.040%</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>95.60萬</t>
+          <t>94.51萬</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>5.82百萬</t>
+          <t>5.97百萬</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>3.08%</t>
+          <t>2.95%</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>53.60億</t>
+          <t>56.04億</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -17480,7 +17480,7 @@
         </is>
       </c>
       <c r="AG112" t="n">
-        <v>5360000000</v>
+        <v>5604000000</v>
       </c>
     </row>
     <row r="113">
@@ -17501,47 +17501,47 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>6.270</t>
+          <t>6.350</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>-0.030</t>
+          <t>+0.060</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>-0.476%</t>
+          <t>+0.954%</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2.25百萬</t>
+          <t>1.21百萬</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>1.42千萬</t>
+          <t>7.66百萬</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>27.56</t>
+          <t>27.91</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>1.09%</t>
+          <t>1.07%</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>68.02億</t>
+          <t>68.89億</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -17633,7 +17633,7 @@
         </is>
       </c>
       <c r="AG113" t="n">
-        <v>6802000000</v>
+        <v>6889000000</v>
       </c>
     </row>
     <row r="114">
@@ -17654,32 +17654,32 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2.870</t>
+          <t>2.880</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>+0.040</t>
+          <t>+0.010</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>+1.413%</t>
+          <t>+0.348%</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>3.09百萬</t>
+          <t>7.69百萬</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>8.82百萬</t>
+          <t>2.21千萬</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -17689,12 +17689,12 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>7.68%</t>
+          <t>7.65%</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>125.45億</t>
+          <t>125.89億</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -17786,7 +17786,7 @@
         </is>
       </c>
       <c r="AG114" t="n">
-        <v>12545000000</v>
+        <v>12589000000</v>
       </c>
     </row>
     <row r="115">
@@ -17807,37 +17807,37 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>72.500</t>
+          <t>73.800</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>+0.700</t>
+          <t>+0.500</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>+0.975%</t>
+          <t>+0.682%</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>1.67百萬</t>
+          <t>3.95百萬</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>1.21億</t>
+          <t>2.91億</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>22.22</t>
+          <t>22.62</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -17847,7 +17847,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>292.59億</t>
+          <t>297.84億</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -17939,7 +17939,7 @@
         </is>
       </c>
       <c r="AG115" t="n">
-        <v>29259000000</v>
+        <v>29784000000</v>
       </c>
     </row>
     <row r="116">
@@ -17960,47 +17960,47 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>6.540</t>
+          <t>6.340</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>-0.170</t>
+          <t>-0.140</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>-2.534%</t>
+          <t>-2.160%</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>1.44百萬</t>
+          <t>1.10百萬</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>9.61百萬</t>
+          <t>6.97百萬</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>66.76</t>
+          <t>64.72</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>0.39%</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>72.97億</t>
+          <t>70.74億</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -18092,7 +18092,7 @@
         </is>
       </c>
       <c r="AG116" t="n">
-        <v>7297000000</v>
+        <v>7074000000</v>
       </c>
     </row>
     <row r="117">
@@ -18113,47 +18113,47 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>21.450</t>
+          <t>20.400</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>+0.450</t>
+          <t>-0.850</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>+2.143%</t>
+          <t>-4.000%</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>3.05百萬</t>
+          <t>5.16百萬</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>6.59千萬</t>
+          <t>1.07億</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>6.28%</t>
+          <t>6.60%</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>80.69億</t>
+          <t>76.74億</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -18245,7 +18245,7 @@
         </is>
       </c>
       <c r="AG117" t="n">
-        <v>8069000000</v>
+        <v>7674000000</v>
       </c>
     </row>
     <row r="118">
@@ -18266,37 +18266,37 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>12.000</t>
+          <t>12.140</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>+0.480</t>
+          <t>+0.080</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>+4.167%</t>
+          <t>+0.663%</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>4.41千萬</t>
+          <t>1.01億</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>5.22億</t>
+          <t>12.37億</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>12.71</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -18306,7 +18306,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2,994.17億</t>
+          <t>3,029.10億</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -18394,7 +18394,7 @@
         </is>
       </c>
       <c r="AG118" t="n">
-        <v>299417000000</v>
+        <v>302910000000</v>
       </c>
     </row>
     <row r="119">
@@ -18415,47 +18415,47 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>7.550</t>
+          <t>7.650</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>+0.100</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0.000%</t>
+          <t>+1.325%</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>15.30萬</t>
+          <t>45.15萬</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>1.16百萬</t>
+          <t>3.47百萬</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>10.20%</t>
+          <t>10.07%</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>59.95億</t>
+          <t>60.74億</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -18547,7 +18547,7 @@
         </is>
       </c>
       <c r="AG119" t="n">
-        <v>5995000000</v>
+        <v>6074000000</v>
       </c>
     </row>
     <row r="120">
@@ -18568,32 +18568,32 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>18.460</t>
+          <t>18.400</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>+0.240</t>
+          <t>-0.020</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>+1.317%</t>
+          <t>-0.109%</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>82.20萬</t>
+          <t>1.25百萬</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>1.51千萬</t>
+          <t>2.31千萬</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -18603,12 +18603,12 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>5.15%</t>
+          <t>5.16%</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>294.62億</t>
+          <t>293.66億</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -18700,7 +18700,7 @@
         </is>
       </c>
       <c r="AG120" t="n">
-        <v>29462000000</v>
+        <v>29366000000</v>
       </c>
     </row>
     <row r="121">
@@ -18726,22 +18726,22 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>-0.010</t>
+          <t>+0.010</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>-0.373%</t>
+          <t>+0.376%</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>70.60萬</t>
+          <t>2.35百萬</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>1.89百萬</t>
+          <t>6.28百萬</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -18874,37 +18874,37 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>6.710</t>
+          <t>6.890</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>+0.150</t>
+          <t>+0.060</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>+2.287%</t>
+          <t>+0.878%</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>68.38萬</t>
+          <t>72.49萬</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>4.57百萬</t>
+          <t>5.05百萬</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>17.12</t>
+          <t>17.58</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -18914,7 +18914,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>76.74億</t>
+          <t>78.80億</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -18998,7 +18998,7 @@
         </is>
       </c>
       <c r="AG122" t="n">
-        <v>7674000000</v>
+        <v>7880000000</v>
       </c>
     </row>
     <row r="123">
@@ -19019,47 +19019,47 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>6.410</t>
+          <t>6.520</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>+0.180</t>
+          <t>+0.110</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>+2.889%</t>
+          <t>+1.716%</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>8.63百萬</t>
+          <t>2.16千萬</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>5.54千萬</t>
+          <t>1.42億</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>5.75%</t>
+          <t>5.65%</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>263.24億</t>
+          <t>267.75億</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -19151,7 +19151,7 @@
         </is>
       </c>
       <c r="AG123" t="n">
-        <v>26324000000</v>
+        <v>26775000000</v>
       </c>
     </row>
     <row r="124">
@@ -19172,37 +19172,37 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>17.360</t>
+          <t>17.680</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>+0.440</t>
+          <t>+0.300</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>+2.600%</t>
+          <t>+1.726%</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>1.17百萬</t>
+          <t>3.53百萬</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2.03千萬</t>
+          <t>6.20千萬</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>222.62</t>
+          <t>226.73</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -19212,7 +19212,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>249.61億</t>
+          <t>254.21億</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="AG124" t="n">
-        <v>24961000000</v>
+        <v>25421000000</v>
       </c>
     </row>
     <row r="125">
@@ -19317,37 +19317,37 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>45.100</t>
+          <t>45.200</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>+1.650</t>
+          <t>+0.100</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>+3.797%</t>
+          <t>+0.222%</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>23.87萬</t>
+          <t>5.65萬</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>1.06千萬</t>
+          <t>2.55百萬</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>44.46</t>
+          <t>44.56</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -19357,7 +19357,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>1,154.03億</t>
+          <t>1,156.59億</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -19445,7 +19445,7 @@
         </is>
       </c>
       <c r="AG125" t="n">
-        <v>115403000000</v>
+        <v>115659000000</v>
       </c>
     </row>
     <row r="126">
@@ -19466,27 +19466,27 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>11.740</t>
+          <t>11.760</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>+0.140</t>
+          <t>-0.040</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>+1.207%</t>
+          <t>-0.339%</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>1.54千萬</t>
+          <t>2.71千萬</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>1.82億</t>
+          <t>3.22億</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -19496,17 +19496,17 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>9.07%</t>
+          <t>9.06%</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>393.85億</t>
+          <t>394.52億</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -19598,7 +19598,7 @@
         </is>
       </c>
       <c r="AG126" t="n">
-        <v>39385000000</v>
+        <v>39452000000</v>
       </c>
     </row>
     <row r="127">
@@ -19619,47 +19619,47 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>4.420</t>
+          <t>4.510</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>-0.060</t>
+          <t>+0.010</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>-1.339%</t>
+          <t>+0.222%</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>1.62千萬</t>
+          <t>2.09千萬</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>7.35千萬</t>
+          <t>9.12千萬</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>2.94%</t>
+          <t>2.88%</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>77.46億</t>
+          <t>79.04億</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -19751,7 +19751,7 @@
         </is>
       </c>
       <c r="AG127" t="n">
-        <v>7746000000</v>
+        <v>7904000000</v>
       </c>
     </row>
     <row r="128">
@@ -19772,32 +19772,32 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>15.100</t>
+          <t>15.020</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>+0.520</t>
+          <t>-0.120</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>+3.567%</t>
+          <t>-0.793%</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2.85百萬</t>
+          <t>4.20百萬</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>4.29千萬</t>
+          <t>6.30千萬</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>11.31</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -19812,7 +19812,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>182.48億</t>
+          <t>181.52億</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -19904,7 +19904,7 @@
         </is>
       </c>
       <c r="AG128" t="n">
-        <v>18248000000</v>
+        <v>18152000000</v>
       </c>
     </row>
     <row r="129">
@@ -19925,47 +19925,47 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>86.050</t>
+          <t>87.400</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>+3.350</t>
+          <t>-0.050</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>+4.051%</t>
+          <t>-0.057%</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>4.55百萬</t>
+          <t>4.32百萬</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>3.87億</t>
+          <t>3.78億</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>24.49</t>
+          <t>24.87</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>1.84%</t>
+          <t>1.81%</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2,335.07億</t>
+          <t>2,371.71億</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -20057,7 +20057,7 @@
         </is>
       </c>
       <c r="AG129" t="n">
-        <v>233507000000</v>
+        <v>237171000000</v>
       </c>
     </row>
     <row r="130">
@@ -20078,47 +20078,47 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>7.260</t>
+          <t>7.190</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>+0.070</t>
+          <t>-0.140</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>+0.974%</t>
+          <t>-1.910%</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>9.00百萬</t>
+          <t>1.32千萬</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>6.50千萬</t>
+          <t>9.49千萬</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>3.71%</t>
+          <t>3.75%</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>224.96億</t>
+          <t>222.79億</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -20210,7 +20210,7 @@
         </is>
       </c>
       <c r="AG130" t="n">
-        <v>22496000000</v>
+        <v>22279000000</v>
       </c>
     </row>
     <row r="131">
@@ -20231,37 +20231,37 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>8.010</t>
+          <t>7.750</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>-0.110</t>
+          <t>-0.230</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>-1.355%</t>
+          <t>-2.882%</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>1.92百萬</t>
+          <t>4.61百萬</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>1.55千萬</t>
+          <t>3.60千萬</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>30.97</t>
+          <t>29.97</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -20271,7 +20271,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>324.97億</t>
+          <t>314.42億</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -20355,7 +20355,7 @@
         </is>
       </c>
       <c r="AG131" t="n">
-        <v>32497000000</v>
+        <v>31442000000</v>
       </c>
     </row>
     <row r="132">
@@ -20376,37 +20376,37 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>72.000</t>
+          <t>70.850</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>+4.400</t>
+          <t>-1.100</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>+6.509%</t>
+          <t>-1.529%</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>1.02千萬</t>
+          <t>1.18千萬</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>7.13億</t>
+          <t>8.34億</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>72.59</t>
+          <t>71.43</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -20416,7 +20416,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>3,035.12億</t>
+          <t>2,986.64億</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -20504,7 +20504,7 @@
         </is>
       </c>
       <c r="AG132" t="n">
-        <v>303512000000</v>
+        <v>298664000000</v>
       </c>
     </row>
     <row r="133">
@@ -20525,47 +20525,47 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>7.590</t>
+          <t>7.680</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>+0.050</t>
+          <t>+0.090</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>+0.663%</t>
+          <t>+1.186%</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>1.06千萬</t>
+          <t>2.18千萬</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>8.02千萬</t>
+          <t>1.67億</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>6.57%</t>
+          <t>6.49%</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>523.66億</t>
+          <t>529.87億</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -20657,7 +20657,7 @@
         </is>
       </c>
       <c r="AG133" t="n">
-        <v>52366000000</v>
+        <v>52987000000</v>
       </c>
     </row>
     <row r="134">
@@ -20678,47 +20678,47 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>11.000</t>
+          <t>11.140</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>+0.480</t>
+          <t>+0.160</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>+4.563%</t>
+          <t>+1.457%</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2.63百萬</t>
+          <t>3.33百萬</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2.87千萬</t>
+          <t>3.67千萬</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>4.12%</t>
+          <t>4.07%</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>213.73億</t>
+          <t>216.45億</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -20810,7 +20810,7 @@
         </is>
       </c>
       <c r="AG134" t="n">
-        <v>21373000000</v>
+        <v>21645000000</v>
       </c>
     </row>
     <row r="135">
@@ -20831,47 +20831,47 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>3.060</t>
+          <t>3.030</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>+0.180</t>
+          <t>-0.030</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>+6.250%</t>
+          <t>-0.980%</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>3.92千萬</t>
+          <t>3.54千萬</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>1.18億</t>
+          <t>1.08億</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>24.18%</t>
+          <t>24.42%</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>160.99億</t>
+          <t>159.41億</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -20959,7 +20959,7 @@
         </is>
       </c>
       <c r="AG135" t="n">
-        <v>16099000000</v>
+        <v>15941000000</v>
       </c>
     </row>
     <row r="136">
@@ -20980,47 +20980,47 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>4.150</t>
+          <t>4.110</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>+0.050</t>
+          <t>-0.050</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>+1.220%</t>
+          <t>-1.202%</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>4.17百萬</t>
+          <t>9.80百萬</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>1.72千萬</t>
+          <t>4.05千萬</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>10.93</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>2.36%</t>
+          <t>2.38%</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>257.74億</t>
+          <t>255.26億</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -21112,7 +21112,7 @@
         </is>
       </c>
       <c r="AG136" t="n">
-        <v>25774000000</v>
+        <v>25526000000</v>
       </c>
     </row>
     <row r="137">
@@ -21133,47 +21133,47 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>94.350</t>
+          <t>95.850</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>+4.800</t>
+          <t>+1.100</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>+5.360%</t>
+          <t>+1.161%</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>1.76百萬</t>
+          <t>1.10百萬</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>1.62億</t>
+          <t>1.05億</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>44.03</t>
+          <t>44.73</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>0.67%</t>
+          <t>0.66%</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>370.01億</t>
+          <t>375.90億</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -21265,7 +21265,7 @@
         </is>
       </c>
       <c r="AG137" t="n">
-        <v>37001000000</v>
+        <v>37590000000</v>
       </c>
     </row>
     <row r="138">
@@ -21286,47 +21286,47 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>119.400</t>
+          <t>123.200</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>+8.100</t>
+          <t>+1.700</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>+7.278%</t>
+          <t>+1.399%</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>6.83百萬</t>
+          <t>1.03千萬</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>8.01億</t>
+          <t>12.73億</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>21.36</t>
+          <t>22.04</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>0.90%</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>1,309.64億</t>
+          <t>1,351.32億</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -21418,7 +21418,7 @@
         </is>
       </c>
       <c r="AG138" t="n">
-        <v>130964000000</v>
+        <v>135132000000</v>
       </c>
     </row>
     <row r="139">
@@ -21439,32 +21439,32 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>11.780</t>
+          <t>11.760</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>+0.380</t>
+          <t>+0.040</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>+3.333%</t>
+          <t>+0.341%</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>1.25千萬</t>
+          <t>1.17千萬</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>1.46億</t>
+          <t>1.38億</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -21474,12 +21474,12 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>6.76%</t>
+          <t>6.77%</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>876.57億</t>
+          <t>875.08億</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="AG139" t="n">
-        <v>87657000000</v>
+        <v>87508000000</v>
       </c>
     </row>
     <row r="140">
@@ -21592,47 +21592,47 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1.500</t>
+          <t>1.520</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>+0.020</t>
+          <t>+0.040</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>+1.351%</t>
+          <t>+2.703%</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>50.40萬</t>
+          <t>7.19百萬</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>75.02萬</t>
+          <t>1.10千萬</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>4.81%</t>
+          <t>4.75%</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>50.93億</t>
+          <t>51.61億</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -21724,7 +21724,7 @@
         </is>
       </c>
       <c r="AG140" t="n">
-        <v>5093000000</v>
+        <v>5161000000</v>
       </c>
     </row>
     <row r="141">
@@ -21745,47 +21745,47 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>7.150</t>
+          <t>7.610</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>+0.080</t>
+          <t>+0.380</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>+1.132%</t>
+          <t>+5.256%</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>1.38百萬</t>
+          <t>9.43百萬</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>9.81百萬</t>
+          <t>7.09千萬</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>89.01</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>2.57%</t>
+          <t>2.41%</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>129.50億</t>
+          <t>137.83億</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="AG141" t="n">
-        <v>12950000000</v>
+        <v>13783000000</v>
       </c>
     </row>
     <row r="142">
@@ -21898,7 +21898,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1.460</t>
+          <t>1.470</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -21908,22 +21908,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>+0.690%</t>
+          <t>+0.685%</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>88.60萬</t>
+          <t>2.20百萬</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>1.29百萬</t>
+          <t>3.23百萬</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -21933,12 +21933,12 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>15.07%</t>
+          <t>14.97%</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>62.49億</t>
+          <t>62.92億</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -22030,7 +22030,7 @@
         </is>
       </c>
       <c r="AG142" t="n">
-        <v>6249000000</v>
+        <v>6292000000</v>
       </c>
     </row>
     <row r="143">
@@ -22051,47 +22051,47 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>28.800</t>
+          <t>29.200</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>+1.200</t>
+          <t>+0.600</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>+4.348%</t>
+          <t>+2.098%</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>97.09萬</t>
+          <t>1.67百萬</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2.77千萬</t>
+          <t>4.88千萬</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>13.84%</t>
+          <t>13.65%</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>380.29億</t>
+          <t>385.57億</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -22179,7 +22179,7 @@
         </is>
       </c>
       <c r="AG143" t="n">
-        <v>38029000000</v>
+        <v>38557000000</v>
       </c>
     </row>
     <row r="144">
@@ -22200,47 +22200,47 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>3.590</t>
+          <t>3.620</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>-0.020</t>
+          <t>+0.020</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>-0.554%</t>
+          <t>+0.556%</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>66.98萬</t>
+          <t>67.45萬</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2.41百萬</t>
+          <t>2.45百萬</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>10.86</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>4.54%</t>
+          <t>4.50%</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>491.62億</t>
+          <t>495.73億</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -22332,7 +22332,7 @@
         </is>
       </c>
       <c r="AG144" t="n">
-        <v>49162000000</v>
+        <v>49573000000</v>
       </c>
     </row>
     <row r="145">
@@ -22353,37 +22353,37 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>3.070</t>
+          <t>2.910</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>-0.050</t>
+          <t>-0.160</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>-1.603%</t>
+          <t>-5.212%</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>1.07億</t>
+          <t>2.93億</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>3.32億</t>
+          <t>8.56億</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>12.12</t>
+          <t>11.49</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -22393,7 +22393,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>832.07億</t>
+          <t>788.70億</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="AG145" t="n">
-        <v>83207000000</v>
+        <v>78870000000</v>
       </c>
     </row>
     <row r="146">
@@ -22498,32 +22498,32 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>8.470</t>
+          <t>8.570</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>+0.040</t>
+          <t>+0.090</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>+0.474%</t>
+          <t>+1.061%</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>57.80萬</t>
+          <t>1.68百萬</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>4.90百萬</t>
+          <t>1.44千萬</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -22533,12 +22533,12 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>8.03%</t>
+          <t>7.94%</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>233.86億</t>
+          <t>236.62億</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -22630,7 +22630,7 @@
         </is>
       </c>
       <c r="AG146" t="n">
-        <v>23386000000</v>
+        <v>23662000000</v>
       </c>
     </row>
     <row r="147">
@@ -22651,47 +22651,47 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>3.350</t>
+          <t>3.210</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>+0.110</t>
+          <t>-0.073</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>+3.395%</t>
+          <t>-2.224%</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>6.35百萬</t>
+          <t>8.07百萬</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2.10千萬</t>
+          <t>2.61千萬</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>19.33</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>5.19%</t>
+          <t>5.42%</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>244.50億</t>
+          <t>234.28億</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="AG147" t="n">
-        <v>24450000000</v>
+        <v>23428000000</v>
       </c>
     </row>
     <row r="148">
@@ -22804,32 +22804,32 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>25.450</t>
+          <t>25.550</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>+0.500</t>
+          <t>-0.050</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>+2.004%</t>
+          <t>-0.195%</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>1.06百萬</t>
+          <t>4.15百萬</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2.69千萬</t>
+          <t>1.05億</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>71.67</t>
+          <t>71.95</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -22844,7 +22844,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>348.72億</t>
+          <t>350.09億</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -22936,7 +22936,7 @@
         </is>
       </c>
       <c r="AG148" t="n">
-        <v>34872000000</v>
+        <v>35009000000</v>
       </c>
     </row>
     <row r="149">
@@ -22957,47 +22957,47 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>37.300</t>
+          <t>36.050</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>+0.550</t>
+          <t>-1.050</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>+1.497%</t>
+          <t>-2.830%</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>1.45百萬</t>
+          <t>1.96百萬</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>5.41千萬</t>
+          <t>7.08千萬</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>18.69</t>
+          <t>18.06</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2.96%</t>
+          <t>3.06%</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>204.15億</t>
+          <t>197.31億</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -23089,7 +23089,7 @@
         </is>
       </c>
       <c r="AG149" t="n">
-        <v>20415000000</v>
+        <v>19731000000</v>
       </c>
     </row>
     <row r="150">
@@ -23110,47 +23110,47 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>7.800</t>
+          <t>7.970</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>+0.320</t>
+          <t>+0.130</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>+4.278%</t>
+          <t>+1.658%</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>97.80萬</t>
+          <t>2.88百萬</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>7.54百萬</t>
+          <t>2.28千萬</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>14.25</t>
+          <t>14.56</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2.69%</t>
+          <t>2.64%</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>158.21億</t>
+          <t>161.65億</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -23242,7 +23242,7 @@
         </is>
       </c>
       <c r="AG150" t="n">
-        <v>15821000000</v>
+        <v>16165000000</v>
       </c>
     </row>
     <row r="151">
@@ -23263,47 +23263,47 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>11.120</t>
+          <t>11.180</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>+0.260</t>
+          <t>+0.080</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>+2.394%</t>
+          <t>+0.721%</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>17.30萬</t>
+          <t>45.30萬</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>1.91百萬</t>
+          <t>5.07百萬</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>1.53%</t>
+          <t>1.52%</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>76.91億</t>
+          <t>77.33億</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -23395,7 +23395,7 @@
         </is>
       </c>
       <c r="AG151" t="n">
-        <v>7691000000</v>
+        <v>7733000000</v>
       </c>
     </row>
     <row r="152">
@@ -23416,32 +23416,32 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>1.170</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>+0.020</t>
+          <t>-0.010</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>+1.724%</t>
+          <t>-0.847%</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>3.22百萬</t>
+          <t>1.81百萬</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>3.79百萬</t>
+          <t>2.12百萬</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -23456,7 +23456,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>85.75億</t>
+          <t>85.03億</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -23544,7 +23544,7 @@
         </is>
       </c>
       <c r="AG152" t="n">
-        <v>8575000000</v>
+        <v>8503000000</v>
       </c>
     </row>
     <row r="153">
@@ -23565,37 +23565,37 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>26.600</t>
+          <t>25.850</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>+0.600</t>
+          <t>-0.700</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>+2.308%</t>
+          <t>-2.637%</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>74.60萬</t>
+          <t>2.11百萬</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>1.98千萬</t>
+          <t>5.47千萬</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>21.94</t>
+          <t>21.32</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -23605,7 +23605,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>119.70億</t>
+          <t>116.33億</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -23693,7 +23693,160 @@
         </is>
       </c>
       <c r="AG153" t="n">
-        <v>11970000000</v>
+        <v>11633000000</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>06869.HK</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>長飛光纖光纜</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>3502</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>15.340</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>+1.240</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>+8.794%</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>7.59百萬</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>1.15億</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>13.33</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>2.24%</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>53.93億</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>06869.HK</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O154" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P154" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="R154" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="S154" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>29.89%</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>36.12%</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>2021/12</t>
+        </is>
+      </c>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>06869.HK</t>
+        </is>
+      </c>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>116.77億</t>
+        </is>
+      </c>
+      <c r="Y154" t="inlineStr">
+        <is>
+          <t>19.000%</t>
+        </is>
+      </c>
+      <c r="Z154" t="inlineStr">
+        <is>
+          <t>8.80億</t>
+        </is>
+      </c>
+      <c r="AA154" t="inlineStr">
+        <is>
+          <t>7.533%</t>
+        </is>
+      </c>
+      <c r="AB154" t="inlineStr">
+        <is>
+          <t>8.68億</t>
+        </is>
+      </c>
+      <c r="AC154" t="inlineStr">
+        <is>
+          <t>7.430%</t>
+        </is>
+      </c>
+      <c r="AD154" t="inlineStr">
+        <is>
+          <t>1.151</t>
+        </is>
+      </c>
+      <c r="AE154" t="inlineStr">
+        <is>
+          <t>34.126%</t>
+        </is>
+      </c>
+      <c r="AF154" t="inlineStr">
+        <is>
+          <t>2021/12</t>
+        </is>
+      </c>
+      <c r="AG154" t="n">
+        <v>5393000000</v>
       </c>
     </row>
   </sheetData>
